--- a/1. Prijedlog projekta/Početni (okvirni, grubi) plan.xlsx
+++ b/1. Prijedlog projekta/Početni (okvirni, grubi) plan.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Ivan\Faks\PIS\PIS\1. Prijedlog projekta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Ivan\Faks\PIS\pis-git\1. Prijedlog projekta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF34343-0E2E-4BCE-B73E-545F554271CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F2CD32-3DD7-4843-A6E2-5247A4314D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24210" yWindow="0" windowWidth="14295" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Početni (okvirni, grubi) plan" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>Ime Zadatka</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Izvršitelj</t>
-  </si>
-  <si>
-    <t>Apartmani, Hoteli i Sobe</t>
   </si>
   <si>
     <t>Trajanje (dana)</t>
@@ -448,7 +445,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,11 +476,9 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>2</v>
@@ -494,7 +489,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3">
         <v>4</v>
@@ -519,7 +514,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -531,7 +526,7 @@
         <v>45420</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -540,7 +535,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -552,7 +547,7 @@
         <v>45422</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -561,7 +556,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="3">
         <v>7</v>
@@ -573,7 +568,7 @@
         <v>45429</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -582,7 +577,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -594,7 +589,7 @@
         <v>45425</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -603,7 +598,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -615,7 +610,7 @@
         <v>45429</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -624,7 +619,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3">
         <v>13</v>
@@ -643,7 +638,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -655,7 +650,7 @@
         <v>45432</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -664,7 +659,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -676,7 +671,7 @@
         <v>45435</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -685,7 +680,7 @@
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
@@ -697,7 +692,7 @@
         <v>45438</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -706,7 +701,7 @@
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
@@ -718,7 +713,7 @@
         <v>45440</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -727,7 +722,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -739,7 +734,7 @@
         <v>45442</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -748,7 +743,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3">
         <v>18</v>
@@ -767,7 +762,7 @@
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -779,7 +774,7 @@
         <v>45444</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -788,7 +783,7 @@
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>4</v>
@@ -800,7 +795,7 @@
         <v>45448</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -809,7 +804,7 @@
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
@@ -821,7 +816,7 @@
         <v>45451</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -830,7 +825,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
@@ -842,7 +837,7 @@
         <v>45454</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -851,7 +846,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1">
         <v>6</v>
@@ -863,7 +858,7 @@
         <v>45460</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>

--- a/1. Prijedlog projekta/Početni (okvirni, grubi) plan.xlsx
+++ b/1. Prijedlog projekta/Početni (okvirni, grubi) plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Ivan\Faks\PIS\pis-git\1. Prijedlog projekta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F2CD32-3DD7-4843-A6E2-5247A4314D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3122468D-2F46-4BDA-84DC-CE41A1234C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Početni (okvirni, grubi) plan" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>Ime Zadatka</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Pokretanje projekta</t>
   </si>
   <si>
-    <t>Ivan Đolo</t>
-  </si>
-  <si>
     <t>Procjena resursa</t>
   </si>
   <si>
@@ -100,6 +97,21 @@
   </si>
   <si>
     <t>Model arhitekture</t>
+  </si>
+  <si>
+    <t>Voditelj projekta</t>
+  </si>
+  <si>
+    <t>Analitičar sustava</t>
+  </si>
+  <si>
+    <t>Analitičar sustava, Voditelj projekta</t>
+  </si>
+  <si>
+    <t>Analitičar sustava, Programer</t>
+  </si>
+  <si>
+    <t>Dizajner baze podataka</t>
   </si>
 </sst>
 </file>
@@ -445,16 +457,16 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection sqref="A1:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
     <col min="6" max="6" width="23.42578125" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
@@ -514,7 +526,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -526,7 +538,7 @@
         <v>45420</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -535,7 +547,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -547,7 +559,7 @@
         <v>45422</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -556,7 +568,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
         <v>7</v>
@@ -568,7 +580,7 @@
         <v>45429</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -577,7 +589,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -589,7 +601,7 @@
         <v>45425</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -598,7 +610,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -610,7 +622,7 @@
         <v>45429</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -619,7 +631,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3">
         <v>13</v>
@@ -638,7 +650,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
@@ -650,7 +662,7 @@
         <v>45432</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -659,7 +671,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>3</v>
@@ -671,7 +683,7 @@
         <v>45435</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -680,7 +692,7 @@
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>3</v>
@@ -692,7 +704,7 @@
         <v>45438</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -701,7 +713,7 @@
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
@@ -713,16 +725,16 @@
         <v>45440</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -734,7 +746,7 @@
         <v>45442</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -743,7 +755,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3">
         <v>18</v>
@@ -762,7 +774,7 @@
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -774,16 +786,16 @@
         <v>45444</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>4</v>
@@ -795,16 +807,16 @@
         <v>45448</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
@@ -816,7 +828,7 @@
         <v>45451</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -825,7 +837,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
@@ -837,7 +849,7 @@
         <v>45454</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -846,7 +858,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1">
         <v>6</v>
@@ -858,7 +870,7 @@
         <v>45460</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
